--- a/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods _ COLLEGETOWN 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods _ COLLEGETOWN 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,357 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>94154</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bleach</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$15.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$30.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11387</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Veggie Burger</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$52.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$105.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11072</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vegan Chicken Tenders</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$87.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$87.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sausage - Chicken Patty</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$51.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$204.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3357597</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Strawberry (Whole)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$43.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$131.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>45574</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Raspberry (Whole)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$35.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$35.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1345057</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Blueberry</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$76.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$76.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>45528</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Pineapple (Chunk)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$49.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$49.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>46209</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FRZ Banana - Slices</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$21.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$21.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1138748</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nirvana Water - 1.5 Liter</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$9.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$19.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1667864</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Employee Water</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$4.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$14.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>688660</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hals - Black Cherry</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$18.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$18.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6435380</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hals - Lime</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$18.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$18.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
